--- a/UA.xlsx
+++ b/UA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFA95E9-385E-481E-BA18-E60D0D63F97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4154B94-05AF-44DE-9D74-7F2AC0C9B9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="38325" windowHeight="15240" xr2:uid="{B45FBDD8-2A38-46CA-919C-F08CA889F169}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{B45FBDD8-2A38-46CA-919C-F08CA889F169}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Under Armor</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Q324</t>
-  </si>
-  <si>
-    <t>FQ225</t>
   </si>
   <si>
     <t>Main</t>
@@ -170,6 +167,27 @@
   <si>
     <t>Latin America Revenue</t>
   </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>FQ425</t>
+  </si>
 </sst>
 </file>
 
@@ -224,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -234,6 +252,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -571,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00470DC7-2B92-4505-B286-70202F45336C}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +612,7 @@
         <v>4</v>
       </c>
       <c r="I2">
-        <v>7.42</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -601,11 +620,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="3">
-        <f>188.822461+209.114334+34.45</f>
-        <v>432.38679500000001</v>
+        <v>429.29199999999997</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -617,21 +635,21 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>3208.3100189000002</v>
+        <v>2588.63076</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="3">
-        <v>530.70100000000002</v>
+        <v>501.36099999999999</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -639,10 +657,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="3">
-        <v>594.59199999999998</v>
+        <f>0+595.125</f>
+        <v>595.125</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -651,10 +670,13 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>3272.2010189000002</v>
+        <v>2682.3947600000001</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{66273C60-1E44-4F3E-958B-14F5BFFC8ED3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -664,10 +686,10 @@
   <dimension ref="A1:CI348"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="P3:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,38 +700,56 @@
   <sheetData>
     <row r="1" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>19</v>
+      <c r="L2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3">
         <v>826.60500000000002</v>
@@ -717,23 +757,35 @@
       <c r="D3" s="3">
         <v>991.35699999999997</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="3">
+        <v>915.33500000000004</v>
+      </c>
+      <c r="F3" s="3">
+        <v>771.87</v>
+      </c>
       <c r="G3" s="3">
         <v>709.26</v>
       </c>
       <c r="H3" s="3">
         <v>863.34500000000003</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="I3" s="3">
+        <v>843.62</v>
+      </c>
+      <c r="J3" s="3">
+        <v>689.399</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="P3" s="3">
+        <v>3505.1669999999999</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>3105.6239999999998</v>
+      </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -762,7 +814,7 @@
     </row>
     <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3">
         <v>226.64099999999999</v>
@@ -770,23 +822,35 @@
       <c r="D4" s="3">
         <v>287.09100000000001</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="3">
+        <v>284.04899999999998</v>
+      </c>
+      <c r="F4" s="3">
+        <v>284.13400000000001</v>
+      </c>
       <c r="G4" s="3">
         <v>226.892</v>
       </c>
       <c r="H4" s="3">
         <v>283.178</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="3">
+        <v>297.89</v>
+      </c>
+      <c r="J4" s="3">
+        <v>278.61799999999999</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="P4" s="3">
+        <v>1081.915</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1086.578</v>
+      </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
@@ -815,7 +879,7 @@
     </row>
     <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3">
         <v>202.232</v>
@@ -823,23 +887,35 @@
       <c r="D5" s="3">
         <v>232.065</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="3">
+        <v>212.018</v>
+      </c>
+      <c r="F5" s="3">
+        <v>226.70400000000001</v>
+      </c>
       <c r="G5" s="3">
         <v>181.83600000000001</v>
       </c>
       <c r="H5" s="3">
         <v>207.661</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="3">
+        <v>201.11199999999999</v>
+      </c>
+      <c r="J5" s="3">
+        <v>164.828</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="P5" s="3">
+        <v>873.01900000000001</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>755.43700000000001</v>
+      </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -868,7 +944,7 @@
     </row>
     <row r="6" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3">
         <v>55.738999999999997</v>
@@ -876,23 +952,35 @@
       <c r="D6" s="3">
         <v>53.668999999999997</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="3">
+        <v>69.831999999999994</v>
+      </c>
+      <c r="F6" s="3">
+        <v>50.241</v>
+      </c>
       <c r="G6" s="3">
         <v>64.409000000000006</v>
       </c>
       <c r="H6" s="3">
         <v>46.941000000000003</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="I6" s="3">
+        <v>58.99</v>
+      </c>
+      <c r="J6" s="3">
+        <v>45.087000000000003</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="P6" s="7">
+        <v>229.48099999999999</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>215.42700000000002</v>
+      </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -921,7 +1009,7 @@
     </row>
     <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3">
         <v>824.61300000000006</v>
@@ -929,23 +1017,35 @@
       <c r="D7" s="3">
         <v>1070.4010000000001</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="3">
+        <v>1016.655</v>
+      </c>
+      <c r="F7" s="3">
+        <v>877.34699999999998</v>
+      </c>
       <c r="G7" s="3">
         <v>757.79200000000003</v>
       </c>
       <c r="H7" s="3">
         <v>947.18799999999999</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="I7" s="3">
+        <v>966.06799999999998</v>
+      </c>
+      <c r="J7" s="3">
+        <v>780.36599999999999</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="P7" s="7">
+        <v>3789.0159999999996</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>3451.4139999999998</v>
+      </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -974,7 +1074,7 @@
     </row>
     <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3">
         <v>363.67</v>
@@ -982,23 +1082,35 @@
       <c r="D8" s="3">
         <v>351.202</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="3">
+        <v>331</v>
+      </c>
+      <c r="F8" s="3">
+        <v>337.738</v>
+      </c>
       <c r="G8" s="3">
         <v>310.38900000000001</v>
       </c>
       <c r="H8" s="3">
         <v>312.76</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="I8" s="3">
+        <v>301.20800000000003</v>
+      </c>
+      <c r="J8" s="3">
+        <v>281.84500000000003</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="P8" s="7">
+        <v>1383.6100000000001</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>1206.202</v>
+      </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -1027,7 +1139,7 @@
     </row>
     <row r="9" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3">
         <v>97.861999999999995</v>
@@ -1035,23 +1147,35 @@
       <c r="D9" s="3">
         <v>113.93300000000001</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="3">
+        <v>104.51</v>
+      </c>
+      <c r="F9" s="3">
+        <v>89.41</v>
+      </c>
       <c r="G9" s="3">
         <v>92.545000000000002</v>
       </c>
       <c r="H9" s="3">
         <v>116.381</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="I9" s="3">
+        <v>110.432</v>
+      </c>
+      <c r="J9" s="3">
+        <v>91.501999999999995</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="P9" s="7">
+        <v>405.71500000000003</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>410.86</v>
+      </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -1080,7 +1204,7 @@
     </row>
     <row r="10" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3">
         <v>741.95799999999997</v>
@@ -1088,23 +1212,35 @@
       <c r="D10" s="3">
         <v>939.72500000000002</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="3">
+        <v>711.69899999999996</v>
+      </c>
+      <c r="F10" s="3">
+        <v>849.80499999999995</v>
+      </c>
       <c r="G10" s="3">
         <v>680.51300000000003</v>
       </c>
       <c r="H10" s="3">
         <v>825.99300000000005</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="I10" s="3">
+        <v>704.76</v>
+      </c>
+      <c r="J10" s="3">
+        <v>767.60299999999995</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="P10" s="7">
+        <v>3243.1869999999999</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>2978.8690000000001</v>
+      </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -1115,7 +1251,7 @@
     </row>
     <row r="11" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3">
         <v>544.18700000000001</v>
@@ -1123,23 +1259,35 @@
       <c r="D11" s="3">
         <v>595.81100000000004</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="3">
+        <v>740.46600000000001</v>
+      </c>
+      <c r="F11" s="3">
+        <v>454.69</v>
+      </c>
       <c r="G11" s="3">
         <v>480.21300000000002</v>
       </c>
       <c r="H11" s="3">
         <v>550.33600000000001</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="I11" s="3">
+        <v>672.94799999999998</v>
+      </c>
+      <c r="J11" s="3">
+        <v>386.11</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="P11" s="7">
+        <v>2335.154</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>2089.607</v>
+      </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -1150,7 +1298,7 @@
     </row>
     <row r="12" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3">
         <v>25.071999999999999</v>
@@ -1158,23 +1306,35 @@
       <c r="D12" s="3">
         <v>28.646000000000001</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="3">
+        <v>29.068999999999999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>28.454000000000001</v>
+      </c>
       <c r="G12" s="3">
         <v>21.670999999999999</v>
       </c>
       <c r="H12" s="3">
         <v>27.795999999999999</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="I12" s="3">
+        <v>23.904</v>
+      </c>
+      <c r="J12" s="3">
+        <v>24.21</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="P12" s="7">
+        <v>111.24100000000001</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>97.580999999999989</v>
+      </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -1185,7 +1345,7 @@
     </row>
     <row r="13" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3">
         <v>5.7480000000000002</v>
@@ -1193,23 +1353,35 @@
       <c r="D13" s="3">
         <v>2.492</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="3">
+        <v>4.8090000000000002</v>
+      </c>
+      <c r="F13" s="3">
+        <v>-0.752</v>
+      </c>
       <c r="G13" s="3">
         <v>1.268</v>
       </c>
       <c r="H13" s="3">
         <v>-2.1019999999999999</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="I13" s="3">
+        <v>-0.57299999999999995</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2.6509999999999998</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="P13" s="7">
+        <v>12.296999999999999</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>1.244</v>
+      </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -1220,7 +1392,7 @@
     </row>
     <row r="14" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="6">
         <v>1316.9649999999999</v>
@@ -1228,25 +1400,37 @@
       <c r="D14" s="6">
         <v>1566.674</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="6">
+        <v>1486.0429999999999</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1332.1969999999999</v>
+      </c>
       <c r="G14" s="6">
         <v>1183.665</v>
       </c>
       <c r="H14" s="6">
         <v>1399.0229999999999</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="I14" s="6">
+        <v>1401.039</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1180.5830000000001</v>
+      </c>
       <c r="K14" s="6"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6">
+        <v>5701.8789999999999</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>5164.3099999999995</v>
+      </c>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -1318,7 +1502,7 @@
     </row>
     <row r="15" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3">
         <v>705.47</v>
@@ -1326,23 +1510,35 @@
       <c r="D15" s="3">
         <v>818.15099999999995</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="3">
+        <v>815.404</v>
+      </c>
+      <c r="F15" s="3">
+        <v>732.601</v>
+      </c>
       <c r="G15" s="3">
         <v>620.99</v>
       </c>
       <c r="H15" s="3">
         <v>702.89099999999996</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="I15" s="3">
+        <v>735.88400000000001</v>
+      </c>
+      <c r="J15" s="3">
+        <v>629.80100000000004</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="P15" s="7">
+        <v>3071.6260000000002</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>2689.5659999999998</v>
+      </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -1416,7 +1612,7 @@
     </row>
     <row r="16" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ref="C16:G16" si="0">+C14-C15</f>
@@ -1428,11 +1624,11 @@
       </c>
       <c r="E16" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>670.6389999999999</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>599.59599999999989</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
@@ -1444,19 +1640,25 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" ref="I16:J16" si="1">+I14-I15</f>
-        <v>0</v>
+        <v>665.15499999999997</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>550.78200000000004</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="P16" s="7">
+        <f>+P14-P15</f>
+        <v>2630.2529999999997</v>
+      </c>
+      <c r="Q16" s="7">
+        <f>+Q14-Q15</f>
+        <v>2474.7439999999997</v>
+      </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -1530,7 +1732,7 @@
     </row>
     <row r="17" spans="2:87" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3">
         <v>589.072</v>
@@ -1538,23 +1740,35 @@
       <c r="D17" s="3">
         <v>609.04999999999995</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="E17" s="3">
+        <v>599.23</v>
+      </c>
+      <c r="F17" s="3">
+        <v>603.15</v>
+      </c>
       <c r="G17" s="3">
         <v>837.31700000000001</v>
       </c>
       <c r="H17" s="3">
         <v>519.84</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="I17" s="3">
+        <v>637.70100000000002</v>
+      </c>
+      <c r="J17" s="3">
+        <v>607.13300000000004</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="P17" s="7">
+        <v>2400.502</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>2601.991</v>
+      </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -1628,7 +1842,7 @@
     </row>
     <row r="18" spans="2:87" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -1636,23 +1850,35 @@
       <c r="D18" s="3">
         <v>0</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
       <c r="G18" s="3">
         <v>25.085999999999999</v>
       </c>
       <c r="H18" s="3">
         <v>3.2120000000000002</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="I18" s="3">
+        <v>13.945</v>
+      </c>
+      <c r="J18" s="3">
+        <v>15.726000000000001</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="P18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>57.968999999999994</v>
+      </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -1726,7 +1952,7 @@
     </row>
     <row r="19" spans="2:87" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ref="C19:G19" si="2">+C16-C17-C18</f>
@@ -1738,11 +1964,11 @@
       </c>
       <c r="E19" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>71.408999999999878</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3.5540000000000873</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="2"/>
@@ -1754,19 +1980,25 @@
       </c>
       <c r="I19" s="3">
         <f t="shared" ref="I19:J19" si="3">+I16-I17-I18</f>
-        <v>0</v>
+        <v>13.508999999999951</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-72.076999999999998</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="P19" s="3">
+        <f t="shared" ref="P19:Q19" si="4">+P16-P17-P18</f>
+        <v>229.75099999999975</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="4"/>
+        <v>-185.21600000000029</v>
+      </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -1840,7 +2072,7 @@
     </row>
     <row r="20" spans="2:87" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3">
         <v>-1.6259999999999999</v>
@@ -1848,23 +2080,35 @@
       <c r="D20" s="3">
         <v>-0.373</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="3">
+        <v>-0.21099999999999999</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2.4780000000000002</v>
+      </c>
       <c r="G20" s="3">
         <v>2.3439999999999999</v>
       </c>
       <c r="H20" s="3">
         <v>-1.7470000000000001</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="I20" s="3">
+        <v>-3.391</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-3.3210000000000002</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="P20" s="7">
+        <v>0.26800000000000024</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>-6.1150000000000002</v>
+      </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -1938,7 +2182,7 @@
     </row>
     <row r="21" spans="2:87" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3">
         <v>-6.06</v>
@@ -1946,23 +2190,35 @@
       <c r="D21" s="3">
         <v>-6.14</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="3">
+        <v>47.927</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-3.7080000000000002</v>
+      </c>
       <c r="G21" s="3">
         <v>-2.73</v>
       </c>
       <c r="H21" s="3">
         <v>-3.42</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="I21" s="3">
+        <v>-2.5630000000000002</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-4.718</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="P21" s="7">
+        <v>32.019000000000005</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>-13.431000000000001</v>
+      </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -2036,26 +2292,26 @@
     </row>
     <row r="22" spans="2:87" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ref="C22:G22" si="4">+C19+SUM(C20:C21)</f>
+        <f t="shared" ref="C22:G22" si="5">+C19+SUM(C20:C21)</f>
         <v>14.736999999999888</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>132.96000000000006</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>119.12499999999989</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>-4.7840000000000877</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-300.11400000000009</v>
       </c>
       <c r="H22" s="3">
@@ -2063,20 +2319,26 @@
         <v>167.91299999999993</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" ref="I22:J22" si="5">+I19+SUM(I20:I21)</f>
-        <v>0</v>
+        <f t="shared" ref="I22:J22" si="6">+I19+SUM(I20:I21)</f>
+        <v>7.55499999999995</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>-80.116</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="P22" s="3">
+        <f t="shared" ref="P22:Q22" si="7">+P19+SUM(P20:P21)</f>
+        <v>262.03799999999978</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="7"/>
+        <v>-204.76200000000028</v>
+      </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -2150,7 +2412,7 @@
     </row>
     <row r="23" spans="2:87" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3">
         <v>4.3280000000000003</v>
@@ -2158,23 +2420,35 @@
       <c r="D23" s="3">
         <v>28.436</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="E23" s="3">
+        <v>8.5690000000000008</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-11.327</v>
+      </c>
       <c r="G23" s="3">
         <v>5.149</v>
       </c>
       <c r="H23" s="3">
         <v>-2.1360000000000001</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="I23" s="3">
+        <v>6.2949999999999999</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-12.198</v>
+      </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="P23" s="7">
+        <v>30.006000000000007</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>-2.8900000000000006</v>
+      </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -2248,7 +2522,7 @@
     </row>
     <row r="24" spans="2:87" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3">
         <v>-0.39900000000000002</v>
@@ -2256,23 +2530,35 @@
       <c r="D24" s="3">
         <v>0.151</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="E24" s="3">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="G24" s="3">
         <v>-0.16300000000000001</v>
       </c>
       <c r="H24" s="3">
         <v>0.33300000000000002</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="I24" s="3">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.46100000000000002</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="P24" s="7">
+        <v>-2.6000000000000016E-2</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>0.60499999999999998</v>
+      </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -2346,26 +2632,26 @@
     </row>
     <row r="25" spans="2:87" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" ref="C25:G25" si="6">+C22-C23+C24</f>
+        <f t="shared" ref="C25:G25" si="8">+C22-C23+C24</f>
         <v>10.009999999999888</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>104.67500000000005</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>110.75299999999989</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>6.5679999999999126</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-305.4260000000001</v>
       </c>
       <c r="H25" s="3">
@@ -2373,17 +2659,26 @@
         <v>170.38199999999992</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" ref="I25" si="7">+I22-I23+I24</f>
-        <v>0</v>
+        <f t="shared" ref="I25:J25" si="9">+I22-I23+I24</f>
+        <v>1.23399999999995</v>
       </c>
-      <c r="J25" s="3"/>
+      <c r="J25" s="3">
+        <f t="shared" si="9"/>
+        <v>-67.457000000000008</v>
+      </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
+      <c r="P25" s="3">
+        <f t="shared" ref="P25:Q25" si="10">+P22-P23+P24</f>
+        <v>232.00599999999977</v>
+      </c>
+      <c r="Q25" s="3">
+        <f t="shared" si="10"/>
+        <v>-201.26700000000031</v>
+      </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
@@ -2544,47 +2839,53 @@
     </row>
     <row r="27" spans="2:87" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" ref="C27:G27" si="8">+C25/C28</f>
+        <f t="shared" ref="C27:G27" si="11">+C25/C28</f>
         <v>2.2500854178280242E-2</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.23600698945944437</v>
       </c>
-      <c r="E27" s="2" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+      <c r="E27" s="2">
+        <f t="shared" si="11"/>
+        <v>0.25325738485390331</v>
       </c>
-      <c r="F27" s="2" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+      <c r="F27" s="2">
+        <f t="shared" si="11"/>
+        <v>1.5078676345670649E-2</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-0.70101195107564296</v>
       </c>
       <c r="H27" s="2">
         <f>+H25/H28</f>
         <v>0.39419746659725818</v>
       </c>
-      <c r="I27" s="2" t="e">
-        <f t="shared" ref="I27:J27" si="9">+I25/I28</f>
-        <v>#DIV/0!</v>
+      <c r="I27" s="2">
+        <f t="shared" ref="I27:J27" si="12">+I25/I28</f>
+        <v>2.8581752149420721E-3</v>
       </c>
-      <c r="J27" s="2" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="J27" s="2">
+        <f t="shared" si="12"/>
+        <v>-0.15713546956384003</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
+      <c r="P27" s="2">
+        <f t="shared" ref="P27" si="13">+P25/P28</f>
+        <v>0.52689927229597744</v>
+      </c>
+      <c r="Q27" s="2">
+        <f>+Q25/Q28</f>
+        <v>-0.46563876193351661</v>
+      </c>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
@@ -2666,23 +2967,37 @@
       <c r="D28" s="3">
         <v>443.52499999999998</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="E28" s="3">
+        <v>437.31400000000002</v>
+      </c>
+      <c r="F28" s="3">
+        <v>435.58199999999999</v>
+      </c>
       <c r="G28" s="3">
         <v>435.69299999999998</v>
       </c>
       <c r="H28" s="3">
         <v>432.22500000000002</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="I28" s="3">
+        <v>431.74400000000003</v>
+      </c>
+      <c r="J28" s="3">
+        <v>429.29199999999997</v>
+      </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+      <c r="P28" s="3">
+        <f>+AVERAGE(C28:F28)</f>
+        <v>440.32325000000003</v>
+      </c>
+      <c r="Q28" s="3">
+        <f>+AVERAGE(G28:J28)</f>
+        <v>432.23849999999999</v>
+      </c>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>

--- a/UA.xlsx
+++ b/UA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41ABF568-CA39-44A2-A4BF-E3F3509CA459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7939A7E-0025-4250-84D1-A9FE67563641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{B45FBDD8-2A38-46CA-919C-F08CA889F169}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{B45FBDD8-2A38-46CA-919C-F08CA889F169}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
     <t>Apperal</t>
   </si>
   <si>
-    <t>FQ126</t>
+    <t>FQ326</t>
   </si>
 </sst>
 </file>
@@ -231,13 +231,19 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -294,24 +300,27 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -650,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00470DC7-2B92-4505-B286-70202F45336C}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -673,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="2">
-        <v>5.0599999999999996</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -681,10 +690,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="3">
-        <f>188.834386+34.45+205.535895</f>
-        <v>428.82028100000002</v>
-      </c>
-      <c r="J3" s="4" t="s">
+        <f>188.834386+34.45+202.605615</f>
+        <v>425.89000099999998</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -697,7 +706,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>2169.8306218600001</v>
+        <v>3181.39830747</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -708,9 +717,9 @@
         <v>7</v>
       </c>
       <c r="I5" s="3">
-        <v>910.98500000000001</v>
-      </c>
-      <c r="J5" s="4" t="s">
+        <v>464.64800000000002</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -719,10 +728,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="3">
-        <f>389.457+599.757</f>
-        <v>989.21399999999994</v>
-      </c>
-      <c r="J6" s="4" t="s">
+        <f>599.682+390.049</f>
+        <v>989.73099999999999</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -732,7 +741,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>2248.0596218599999</v>
+        <v>3706.4813074699996</v>
       </c>
     </row>
   </sheetData>
@@ -748,10 +757,10 @@
   <dimension ref="A1:CM348"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -853,8 +862,12 @@
       <c r="K3" s="6">
         <v>670.31899999999996</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="L3" s="6">
+        <v>791.50199999999995</v>
+      </c>
+      <c r="M3" s="6">
+        <v>756.726</v>
+      </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -952,8 +965,12 @@
       <c r="K4" s="6">
         <v>248.607</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="L4" s="6">
+        <v>317.67899999999997</v>
+      </c>
+      <c r="M4" s="6">
+        <v>315.75099999999998</v>
+      </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -1051,8 +1068,12 @@
       <c r="K5" s="6">
         <v>163.386</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="L5" s="6">
+        <v>179.17500000000001</v>
+      </c>
+      <c r="M5" s="6">
+        <v>190.88499999999999</v>
+      </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -1150,8 +1171,12 @@
       <c r="K6" s="6">
         <v>54.575000000000003</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="L6" s="6">
+        <v>53.814</v>
+      </c>
+      <c r="M6" s="6">
+        <v>70.602999999999994</v>
+      </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -1249,8 +1274,12 @@
       <c r="K7" s="6">
         <v>746.59199999999998</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="L7" s="6">
+        <v>936.48299999999995</v>
+      </c>
+      <c r="M7" s="6">
+        <v>934.01499999999999</v>
+      </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -1348,8 +1377,12 @@
       <c r="K8" s="6">
         <v>265.85500000000002</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="L8" s="6">
+        <v>263.62599999999998</v>
+      </c>
+      <c r="M8" s="6">
+        <v>265.13499999999999</v>
+      </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -1447,8 +1480,12 @@
       <c r="K9" s="6">
         <v>100.078</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="L9" s="6">
+        <v>113.077</v>
+      </c>
+      <c r="M9" s="6">
+        <v>107.66</v>
+      </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -1546,8 +1583,12 @@
       <c r="K10" s="6">
         <v>649.04999999999995</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="L10" s="6">
+        <v>775.05</v>
+      </c>
+      <c r="M10" s="6">
+        <v>659.96500000000003</v>
+      </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -1645,8 +1686,12 @@
       <c r="K11" s="6">
         <v>463.57499999999999</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="L11" s="6">
+        <v>538.13599999999997</v>
+      </c>
+      <c r="M11" s="6">
+        <v>646.84500000000003</v>
+      </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -1744,8 +1789,12 @@
       <c r="K12" s="6">
         <v>24.361999999999998</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="L12" s="6">
+        <v>28.984000000000002</v>
+      </c>
+      <c r="M12" s="6">
+        <v>27.155000000000001</v>
+      </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -1843,8 +1892,12 @@
       <c r="K13" s="6">
         <v>-2.819</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="L13" s="6">
+        <v>-8.7899999999999991</v>
+      </c>
+      <c r="M13" s="6">
+        <v>-6.2039999999999997</v>
+      </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -1942,8 +1995,12 @@
       <c r="K14" s="7">
         <v>1134.068</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="L14" s="7">
+        <v>1333.38</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1327.761</v>
+      </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -2058,8 +2115,12 @@
       <c r="K15" s="6">
         <v>587.572</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="L15" s="6">
+        <v>702.79600000000005</v>
+      </c>
+      <c r="M15" s="6">
+        <v>738.02099999999996</v>
+      </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -2172,7 +2233,7 @@
         <v>696.13199999999995</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" ref="I16:K16" si="1">+I14-I15</f>
+        <f t="shared" ref="I16:N16" si="1">+I14-I15</f>
         <v>665.15499999999997</v>
       </c>
       <c r="J16" s="6">
@@ -2183,9 +2244,18 @@
         <f t="shared" si="1"/>
         <v>546.49599999999998</v>
       </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="L16" s="6">
+        <f t="shared" si="1"/>
+        <v>630.58400000000006</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="1"/>
+        <v>589.74</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -2301,8 +2371,12 @@
       <c r="K17" s="6">
         <v>530.34500000000003</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="L17" s="6">
+        <v>581.63199999999995</v>
+      </c>
+      <c r="M17" s="6">
+        <v>664.54</v>
+      </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -2417,8 +2491,12 @@
       <c r="K18" s="6">
         <v>12.827999999999999</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="L18" s="6">
+        <v>31.905999999999999</v>
+      </c>
+      <c r="M18" s="6">
+        <v>74.98</v>
+      </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -2531,7 +2609,7 @@
         <v>173.07999999999993</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" ref="I19:K19" si="3">+I16-I17-I18</f>
+        <f t="shared" ref="I19:N19" si="3">+I16-I17-I18</f>
         <v>13.508999999999951</v>
       </c>
       <c r="J19" s="6">
@@ -2542,9 +2620,18 @@
         <f t="shared" si="3"/>
         <v>3.3229999999999542</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="L19" s="6">
+        <f t="shared" si="3"/>
+        <v>17.046000000000113</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="3"/>
+        <v>-149.77999999999997</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -2660,8 +2747,12 @@
       <c r="K20" s="6">
         <v>-4.0510000000000002</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="L20" s="6">
+        <v>-8.6050000000000004</v>
+      </c>
+      <c r="M20" s="6">
+        <v>-8.8919999999999995</v>
+      </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -2776,8 +2867,12 @@
       <c r="K21" s="6">
         <v>-4.6950000000000003</v>
       </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="L21" s="6">
+        <v>-0.94199999999999995</v>
+      </c>
+      <c r="M21" s="6">
+        <v>-1.5840000000000001</v>
+      </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -2890,7 +2985,7 @@
         <v>167.91299999999993</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" ref="I22:K22" si="6">+I19+SUM(I20:I21)</f>
+        <f t="shared" ref="I22:N22" si="6">+I19+SUM(I20:I21)</f>
         <v>7.55499999999995</v>
       </c>
       <c r="J22" s="6">
@@ -2901,9 +2996,18 @@
         <f t="shared" si="6"/>
         <v>-5.4230000000000462</v>
       </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
+      <c r="L22" s="6">
+        <f t="shared" si="6"/>
+        <v>7.4990000000001125</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="6"/>
+        <v>-160.25599999999997</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
@@ -3019,8 +3123,12 @@
       <c r="K23" s="6">
         <v>-2.6579999999999999</v>
       </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="L23" s="6">
+        <v>25.94</v>
+      </c>
+      <c r="M23" s="6">
+        <v>270.60399999999998</v>
+      </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -3135,8 +3243,12 @@
       <c r="K24" s="6">
         <v>0.153</v>
       </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="L24" s="6">
+        <v>-0.373</v>
+      </c>
+      <c r="M24" s="6">
+        <v>3.3000000000000002E-2</v>
+      </c>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -3249,7 +3361,7 @@
         <v>170.38199999999992</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" ref="I25:K25" si="9">+I22-I23+I24</f>
+        <f t="shared" ref="I25:N25" si="9">+I22-I23+I24</f>
         <v>1.23399999999995</v>
       </c>
       <c r="J25" s="6">
@@ -3260,9 +3372,18 @@
         <f t="shared" si="9"/>
         <v>-2.6120000000000463</v>
       </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
+      <c r="L25" s="6">
+        <f t="shared" si="9"/>
+        <v>-18.81399999999989</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="9"/>
+        <v>-430.82699999999994</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
@@ -3467,7 +3588,7 @@
         <v>0.39419746659725818</v>
       </c>
       <c r="I27" s="8">
-        <f t="shared" ref="I27:K27" si="12">+I25/I28</f>
+        <f t="shared" ref="I27:N27" si="12">+I25/I28</f>
         <v>2.8581752149420721E-3</v>
       </c>
       <c r="J27" s="8">
@@ -3478,9 +3599,18 @@
         <f t="shared" si="12"/>
         <v>-6.1154346828497328E-3</v>
       </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
+      <c r="L27" s="8">
+        <f t="shared" si="12"/>
+        <v>-4.3922026380296228E-2</v>
+      </c>
+      <c r="M27" s="8">
+        <f t="shared" si="12"/>
+        <v>-1.0140804293330508</v>
+      </c>
+      <c r="N27" s="8" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
@@ -3596,8 +3726,12 @@
       <c r="K28" s="3">
         <v>427.11599999999999</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="L28" s="3">
+        <v>428.35</v>
+      </c>
+      <c r="M28" s="3">
+        <v>424.84500000000003</v>
+      </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
